--- a/exercice4/test.xlsx
+++ b/exercice4/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c9ad38496950b379/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bili_\Documents\workspace\python-tutorials\exercice4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_AD4D9D64A577C15A4A5418DE105A4D565ADEDD8D" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{70D2CD79-29BB-4721-849A-083236B9E33C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F9CB5D-BE8F-4AF8-BA28-7F8D1FA45786}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>nom</t>
   </si>
@@ -36,28 +36,25 @@
     <t xml:space="preserve">age </t>
   </si>
   <si>
-    <t>akrour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nabila </t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaghba </t>
-  </si>
-  <si>
-    <t>nawal</t>
-  </si>
-  <si>
-    <t>zaghba</t>
-  </si>
-  <si>
-    <t>mounir</t>
-  </si>
-  <si>
-    <t>amel</t>
-  </si>
-  <si>
-    <t>ines</t>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>vv</t>
+  </si>
+  <si>
+    <t>bilou</t>
+  </si>
+  <si>
+    <t>ououi</t>
+  </si>
+  <si>
+    <t>isabelle</t>
+  </si>
+  <si>
+    <t>emelie</t>
+  </si>
+  <si>
+    <t>melina</t>
   </si>
 </sst>
 </file>
@@ -378,7 +375,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,7 +396,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>29</v>
@@ -407,7 +404,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -418,10 +415,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4">
         <v>36</v>
@@ -429,10 +426,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -440,10 +437,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>3</v>

--- a/exercice4/test.xlsx
+++ b/exercice4/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bili_\Documents\workspace\python-tutorials\exercice4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F9CB5D-BE8F-4AF8-BA28-7F8D1FA45786}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B629AB4-BF1B-47C2-8C29-4676A96DA849}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>nom</t>
   </si>
@@ -33,9 +33,6 @@
     <t>prenom</t>
   </si>
   <si>
-    <t xml:space="preserve">age </t>
-  </si>
-  <si>
     <t>cc</t>
   </si>
   <si>
@@ -55,6 +52,30 @@
   </si>
   <si>
     <t>melina</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>kk</t>
+  </si>
+  <si>
+    <t>kiko</t>
+  </si>
+  <si>
+    <t>gigi</t>
+  </si>
+  <si>
+    <t>milo</t>
+  </si>
+  <si>
+    <t>nina</t>
+  </si>
+  <si>
+    <t>ll</t>
+  </si>
+  <si>
+    <t>mina</t>
   </si>
 </sst>
 </file>
@@ -372,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,15 +409,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>29</v>
@@ -404,10 +425,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>35</v>
@@ -415,10 +436,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>36</v>
@@ -426,10 +447,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -437,13 +458,123 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
